--- a/data/Price_List_1.xlsx
+++ b/data/Price_List_1.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>recommended</t>
+    <t>bg#ccddee,bold</t>
   </si>
   <si>
     <t>title</t>
